--- a/RESULTADOS_PAPER/SGAI/datos dinales.xlsx
+++ b/RESULTADOS_PAPER/SGAI/datos dinales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chris\UPV\PHD\LOGIFRUIT\RESULTADOS\paper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chris\UPV\PHD\LOGIFRUIT\RESULTADOS_PAPER\SGAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66FBD3A6-EE16-4EEF-86F5-B51606E99DE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A18AAA4-0F49-4891-B04E-1FF3881284EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{EAD40A42-3D5A-4FAE-9A6C-AB1792132FC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EAD40A42-3D5A-4FAE-9A6C-AB1792132FC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -147,9 +147,14 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:pattFill prst="wdUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -284,9 +289,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:pattFill prst="dkDnDiag">
+              <a:fgClr>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1487,7 +1500,7 @@
   <dimension ref="B1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
